--- a/data/trans_camb/P52_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,45</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,01</t>
+          <t>4,47</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 30,76</t>
+          <t>-4,28; 9,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 22,82</t>
+          <t>-1,7; 28,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 3,03</t>
+          <t>0,49; 13,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,0; -7,19</t>
+          <t>-3,77; 7,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 8,91</t>
+          <t>0,01; 9,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 0,38</t>
+          <t>-0,59; 14,87</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,9%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,33%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,27%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>49,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,47%</t>
+          <t>52,87%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 82,92</t>
+          <t>-44,26; 198,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 64,85</t>
+          <t>-24,43; 691,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 5,25</t>
+          <t>-0,82; 190,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,09; -11,94</t>
+          <t>-33,93; 113,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 17,43</t>
+          <t>0,04; 146,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 1,3</t>
+          <t>-8,91; 217,3</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-30,18</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 28,08</t>
+          <t>-0,41; 16,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-52,98; -5,87</t>
+          <t>-8,26; 5,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 27,45</t>
+          <t>-2,88; 11,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 27,61</t>
+          <t>-5,54; 8,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 24,81</t>
+          <t>0,72; 11,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 7,17</t>
+          <t>-5,18; 5,07</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-48,49%</t>
+          <t>-21,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>72,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>-0,69%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 61,61</t>
+          <t>-4,4; 331,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,8; -6,45</t>
+          <t>-72,0; 116,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 74,48</t>
+          <t>-26,39; 226,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 77,15</t>
+          <t>-43,96; 157,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 54,42</t>
+          <t>3,57; 185,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 15,62</t>
+          <t>-44,23; 85,2</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,6</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,35</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,86</t>
+          <t>13,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,69</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,65</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,71</t>
+          <t>4,88</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 79,86</t>
+          <t>-13,73; 20,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 86,19</t>
+          <t>-16,22; 16,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 69,18</t>
+          <t>-0,89; 28,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 65,71</t>
+          <t>-3,73; 25,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 64,5</t>
+          <t>-1,76; 20,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 61,68</t>
+          <t>-5,53; 15,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>105,18%</t>
+          <t>188,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>138,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>104,52%</t>
+          <t>101,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>59,95%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 735,61</t>
+          <t>-84,1; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 766,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 512,9</t>
+          <t>-26,85; 1474,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 441,26</t>
+          <t>-49,93; 1289,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,34; 330,93</t>
+          <t>-22,91; 542,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 317,04</t>
+          <t>-50,37; 425,99</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,31</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,53</t>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 25,3</t>
+          <t>-0,78; 9,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 6,4</t>
+          <t>-2,32; 14,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 14,71</t>
+          <t>2,04; 11,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 8,87</t>
+          <t>-1,53; 6,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 15,39</t>
+          <t>2,0; 8,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 3,85</t>
+          <t>-0,42; 9,28</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-23,95%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,52%</t>
+          <t>31,35%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 56,45</t>
+          <t>-10,1; 156,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 13,55</t>
+          <t>-28,01; 217,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 31,02</t>
+          <t>18,63; 160,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 19,57</t>
+          <t>-14,38; 102,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 31,64</t>
+          <t>21,05; 131,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 7,74</t>
+          <t>-6,21; 122,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P52_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>37.80232927259101</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>37.10680114824063</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>41.61969296404843</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>35.36464455095867</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>40.59250465212486</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>36.02241965853965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 9,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 28,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 13,32</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 7,38</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 9,13</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 14,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>20.03210883882486</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>17.42358500926468</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>26.79994375459426</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>20.31835777128088</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>28.40509091963744</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>22.95042806793828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>22,48%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>99,67%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>69,18%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,22%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>49,75%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>52,87%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>58.44538181912612</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>68.23771148947493</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>55.54362055721177</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>49.40380716265873</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>51.33436054876599</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>53.95656056889649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-44,26; 198,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-24,43; 691,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 190,58</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-33,93; 113,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 146,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 217,3</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>5.308232955777311</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>5.210566346803995</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>4.004020111952427</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>3.402253547531061</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>4.561590777613191</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>4.048026568203031</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1.803763272611109</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.787133444309082</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.832498792527936</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1.338682577071359</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2.680138366330086</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>2.105269497103668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 16,52</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 5,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 11,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 8,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 11,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 5,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>11.6473861730992</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>15.25534515667771</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.661504823214418</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>6.214205233093836</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>7.509210794615522</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>7.743540886196511</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>88,34%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-21,34%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>57,09%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>72,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>49.12671426668611</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>17.75654285828649</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>53.36297574796654</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>40.17883054867518</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>51.2057489856538</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>28.99764542508112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 331,66</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-72,0; 116,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-26,39; 226,61</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-43,96; 157,04</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 185,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-44,23; 85,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>30.50074315494484</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5446758623168435</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>36.67970813769884</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>23.23179376919144</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>36.39416642229655</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>14.75470759863676</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,3</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,76</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,28</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>67.40103768965409</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>40.14392744546675</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>69.71619524737356</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>57.58140443663942</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>62.81546506351879</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>43.2436712541423</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; 20,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-16,22; 16,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 28,98</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 25,71</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 20,62</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; 15,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>4.585788169499769</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.657504382009194</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>6.391915853008666</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>4.812694575961916</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>5.400786106293525</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.058447217926277</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>34,32%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>188,74%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>138,61%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>101,65%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>59,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1.683185672990121</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.03667685817516588</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>3.192670063287494</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1.871024316716325</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>2.885743501691718</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.233537572986847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-84,1; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-26,85; 1474,85</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-49,93; 1289,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-22,91; 542,6</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-50,37; 425,99</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>11.41133244951611</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>6.456698243348875</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>13.51448383654608</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>10.64546898462166</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>9.148683182241029</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>6.328248772492906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>90.92710294512557</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>90.92710294512557</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>76.62061219546015</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>59.13498129994015</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>81.10926355397268</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>67.11509828225202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 9,38</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 14,68</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 11,01</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 6,65</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 8,98</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 9,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>74.37577971535828</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>75.4336819266386</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>25.46967954491329</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>20.31411208684591</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>41.01357910615388</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>35.07527558915276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>53,12%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>34,78%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>73,82%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>28,79%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>64,19%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>31,35%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>98.01723797419109</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>98.0323322559023</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>95.45378447878812</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>86.1777987127882</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>94.07256341723357</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>88.8051976642452</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-10,1; 156,48</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-28,01; 217,11</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>18,63; 160,13</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-14,38; 102,22</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>21,05; 131,84</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 122,1</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>10.02183783142065</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>10.02183783142065</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>10.95469809103061</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>8.454720579718474</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>10.17034486039386</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>8.415607107756779</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>2.722992515063731</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>2.940362872956764</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>2.767252812315776</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1.532343578605463</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>3.912422883980375</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>2.841527652387232</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>42.65412388150008</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>42.544746442487</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>43.11606431352303</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>35.21700722828613</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>27.55136367126072</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>24.81327679639133</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>47.3078096567648</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>31.90856480226242</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>48.97405722111005</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>39.8568821733582</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>48.26649414848262</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>35.79386335800822</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>33.56480011209252</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>17.42012793085475</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>39.22069884002016</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>28.9692832699339</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>39.81144561879499</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>27.31328622577646</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>59.22190511670485</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>54.76991952179526</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>59.43487990818368</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>51.28925633561519</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>55.47373783167774</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>49.34290154341849</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>5.360943819506204</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>3.615893961422099</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>5.303258629585541</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>4.315986183867269</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>5.337474038216778</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>3.958207857672916</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>2.651417468138038</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.47429853877728</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>3.272388802534575</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2.26620726070747</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>3.597477798545652</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>2.579066079763708</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>8.813691165176515</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>7.567116965611146</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>8.539899444826068</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>6.835629148741697</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>7.304944439728507</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>6.390241969362625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
